--- a/medicine/Psychotrope/Dunhill_(cigarette)/Dunhill_(cigarette).xlsx
+++ b/medicine/Psychotrope/Dunhill_(cigarette)/Dunhill_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dunhill est une marque de cigarettes britannique, actuellement détenue et fabriquée par British American Tobacco[1]. 
+Dunhill est une marque de cigarettes britannique, actuellement détenue et fabriquée par British American Tobacco. 
 La marque porte le nom du buraliste et inventeur anglais Alfred Dunhill. Au Royaume-Uni, ils sont enregistrés et fabriqués à Westminster, à Londres.
 </t>
         </is>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dunhill a été fondée à Londres le 10 mars 1907 et le buraliste et inventeur Alfred Dunhill a ouvert un petit bureau de tabac sur Duke Street dans le quartier de St James's[2]. Il proposait des mélanges de tabac adaptés à chaque client. Dunhill a été introduit en 1908. Il a été conçu pour contrer tout risque perçu pour la santé et avait une première mondiale[3] avec un filtre en coton. Son slogan était la « Cigarette hygiénique »[4]. Les cigarettes Dunhill avaient un mandat royal de 1927 à 1995[5]. 
-En 1939, la marque a été introduite aux États-Unis par Philip Morris USA qui a loué les droits de commercialisation pour les États-Unis et en 1962, Dunhill International a été introduit[5].
-Le prix des cigarettes Dunhill est généralement supérieur à la moyenne des cigarettes de la région où elles sont vendues, en raison de l'utilisation de tabac de meilleure qualité[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dunhill a été fondée à Londres le 10 mars 1907 et le buraliste et inventeur Alfred Dunhill a ouvert un petit bureau de tabac sur Duke Street dans le quartier de St James's. Il proposait des mélanges de tabac adaptés à chaque client. Dunhill a été introduit en 1908. Il a été conçu pour contrer tout risque perçu pour la santé et avait une première mondiale avec un filtre en coton. Son slogan était la « Cigarette hygiénique ». Les cigarettes Dunhill avaient un mandat royal de 1927 à 1995. 
+En 1939, la marque a été introduite aux États-Unis par Philip Morris USA qui a loué les droits de commercialisation pour les États-Unis et en 1962, Dunhill International a été introduit.
+Le prix des cigarettes Dunhill est généralement supérieur à la moyenne des cigarettes de la région où elles sont vendues, en raison de l'utilisation de tabac de meilleure qualité. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Produits de la gamme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dunhill rouge
 Dunhill bleu
